--- a/final_data_pipeline/output/325120longform.xlsx
+++ b/final_data_pipeline/output/325120longform.xlsx
@@ -3678,7 +3678,7 @@
         <v>136</v>
       </c>
       <c r="AA32">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB32">
         <v>8000</v>
@@ -3770,7 +3770,7 @@
         <v>136</v>
       </c>
       <c r="AA33">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB33">
         <v>8000</v>
@@ -3859,7 +3859,7 @@
         <v>136</v>
       </c>
       <c r="AA34">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB34">
         <v>8000</v>
@@ -6108,7 +6108,7 @@
         <v>136</v>
       </c>
       <c r="AA59">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB59">
         <v>8000</v>
@@ -6197,7 +6197,7 @@
         <v>136</v>
       </c>
       <c r="AA60">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB60">
         <v>8000</v>
@@ -6289,7 +6289,7 @@
         <v>136</v>
       </c>
       <c r="AA61">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB61">
         <v>8000</v>
@@ -6378,7 +6378,7 @@
         <v>136</v>
       </c>
       <c r="AA62">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB62">
         <v>8000</v>
@@ -6467,7 +6467,7 @@
         <v>136</v>
       </c>
       <c r="AA63">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB63">
         <v>8000</v>
@@ -6556,7 +6556,7 @@
         <v>136</v>
       </c>
       <c r="AA64">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB64">
         <v>8000</v>
@@ -6645,7 +6645,7 @@
         <v>136</v>
       </c>
       <c r="AA65">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB65">
         <v>8000</v>
@@ -6737,7 +6737,7 @@
         <v>136</v>
       </c>
       <c r="AA66">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB66">
         <v>8000</v>
@@ -6829,7 +6829,7 @@
         <v>136</v>
       </c>
       <c r="AA67">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB67">
         <v>8000</v>
@@ -7188,7 +7188,7 @@
         <v>136</v>
       </c>
       <c r="AA71">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB71">
         <v>8000</v>
@@ -7277,7 +7277,7 @@
         <v>136</v>
       </c>
       <c r="AA72">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB72">
         <v>8000</v>
@@ -7369,7 +7369,7 @@
         <v>136</v>
       </c>
       <c r="AA73">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AB73">
         <v>8000</v>
@@ -7461,7 +7461,7 @@
         <v>136</v>
       </c>
       <c r="AA74">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB74">
         <v>8000</v>
@@ -7550,7 +7550,7 @@
         <v>136</v>
       </c>
       <c r="AA75">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB75">
         <v>8000</v>
@@ -7639,7 +7639,7 @@
         <v>136</v>
       </c>
       <c r="AA76">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB76">
         <v>8000</v>
@@ -11241,7 +11241,7 @@
         <v>136</v>
       </c>
       <c r="AA116">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB116">
         <v>8000</v>
@@ -11330,7 +11330,7 @@
         <v>136</v>
       </c>
       <c r="AA117">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB117">
         <v>8000</v>
@@ -11419,7 +11419,7 @@
         <v>136</v>
       </c>
       <c r="AA118">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB118">
         <v>8000</v>
@@ -12048,7 +12048,7 @@
         <v>136</v>
       </c>
       <c r="AA125">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB125">
         <v>8000</v>
@@ -12137,7 +12137,7 @@
         <v>136</v>
       </c>
       <c r="AA126">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB126">
         <v>8000</v>
@@ -12229,7 +12229,7 @@
         <v>136</v>
       </c>
       <c r="AA127">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB127">
         <v>8000</v>
@@ -12321,7 +12321,7 @@
         <v>136</v>
       </c>
       <c r="AA128">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AB128">
         <v>8000</v>
@@ -12410,7 +12410,7 @@
         <v>136</v>
       </c>
       <c r="AA129">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AB129">
         <v>8000</v>
@@ -12499,7 +12499,7 @@
         <v>136</v>
       </c>
       <c r="AA130">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AB130">
         <v>8000</v>
@@ -12588,7 +12588,7 @@
         <v>136</v>
       </c>
       <c r="AA131">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB131">
         <v>8000</v>
@@ -12680,7 +12680,7 @@
         <v>136</v>
       </c>
       <c r="AA132">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB132">
         <v>8000</v>
@@ -12769,7 +12769,7 @@
         <v>136</v>
       </c>
       <c r="AA133">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB133">
         <v>8000</v>
